--- a/hw3/data.xlsx
+++ b/hw3/data.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1720" yWindow="0" windowWidth="25600" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="1720" yWindow="-20" windowWidth="25600" windowHeight="17520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -34,10 +34,28 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
@@ -61,17 +79,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -755,11 +788,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2086133592"/>
-        <c:axId val="-2036568584"/>
+        <c:axId val="-2075305048"/>
+        <c:axId val="-2075302264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2086133592"/>
+        <c:axId val="-2075305048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -769,7 +802,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2036568584"/>
+        <c:crossAx val="-2075302264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -777,7 +810,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2036568584"/>
+        <c:axId val="-2075302264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -788,7 +821,2468 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2086133592"/>
+        <c:crossAx val="-2075305048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Vector,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> List and Map Performace </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.149814754560639"/>
+          <c:y val="0.0783373537845341"/>
+          <c:w val="0.725969067916097"/>
+          <c:h val="0.842945814937873"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Vector</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$82:$A$106</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>5000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40000.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45000.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60000.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70000.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>80000.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>90000.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>110000.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>120000.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>130000.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>140000.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>150000.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>160000.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>170000.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>180000.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>190000.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>210000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$82:$B$106</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>3258.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10551.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29320.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49862.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>77361.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>119483.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>159917.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>209399.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>264535.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>455057.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>704823.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>919384.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.074119E6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.373021E6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.713324E6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.269565E6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.631038E6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.841783E6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.554821E6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.653809E6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.072697E6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.594941E6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.930601E6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.879084E6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.316151E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>List</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$82:$A$106</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>5000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40000.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45000.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60000.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70000.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>80000.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>90000.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>110000.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>120000.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>130000.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>140000.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>150000.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>160000.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>170000.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>180000.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>190000.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>210000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$82:$C$106</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>44754.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>240292.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>724347.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.505931E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.654235E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.021682E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.733955E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.713886E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.957885E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0412733E7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.837896E7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.4989711E7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.5017155E7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.2368342E7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.8683889E7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.27217458E8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.16580865E8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.3651939E8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.58578871E8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.06583364E8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.04422368E8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.7277135E8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.50982326E8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.33526395E8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.00608306E8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Map</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$82:$A$106</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>5000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40000.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45000.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60000.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70000.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>80000.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>90000.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>110000.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>120000.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>130000.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>140000.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>150000.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>160000.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>170000.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>180000.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>190000.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>210000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$82:$D$106</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1711.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3533.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5069.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8914.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11423.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15548.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17345.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20422.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24258.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33599.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30023.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50421.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>51048.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>56304.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>70170.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>81332.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85161.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>92381.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>99630.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>107867.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>115149.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>118698.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>120504.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>138160.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>146987.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2073275240"/>
+        <c:axId val="-2073735672"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2073275240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800"/>
+                  <a:t>N</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2073735672"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2073735672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5.0E8"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800"/>
+                  <a:t>Microseconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2073275240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Vecotr</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> and Map Performace (N=10k-500k)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Vector</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$141:$A$239</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45000.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50000.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55000.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60000.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>65000.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>70000.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>75000.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80000.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>85000.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>90000.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>95000.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>105000.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>110000.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>115000.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>120000.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>125000.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>130000.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>135000.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>140000.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>145000.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>150000.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>155000.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>160000.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>165000.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>170000.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>175000.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>180000.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>185000.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>190000.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>195000.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>205000.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>210000.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>215000.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>220000.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>225000.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>230000.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>235000.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>240000.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>245000.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>250000.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>255000.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>260000.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>265000.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>270000.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>275000.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>280000.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>285000.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>290000.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>295000.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>300000.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>305000.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>310000.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>315000.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>320000.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>325000.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>330000.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>335000.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>340000.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>345000.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>350000.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>355000.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>360000.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>365000.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>370000.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>375000.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>380000.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>385000.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>390000.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>395000.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>400000.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>405000.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>410000.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>415000.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>420000.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>425000.0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>430000.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>435000.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>440000.0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>445000.0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>450000.0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>455000.0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>460000.0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>465000.0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>470000.0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>475000.0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>480000.0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>485000.0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>490000.0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>495000.0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$141:$B$239</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>13175.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28605.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49510.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>86404.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>118606.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>160243.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>206885.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>265265.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>328086.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>393684.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>451790.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>519789.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>640526.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>724706.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>793267.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>911773.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.019078E6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.173197E6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.268201E6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.489101E6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.594628E6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.817592E6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.866054E6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.073252E6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.383568E6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.822407E6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.909058E6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.170397E6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.432652E6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.562294E6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.575821E6</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.93401E6</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.361691E6</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.556307E6</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.850801E6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.155615E6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.559236E6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.602669E6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.175042E6</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.503728E6</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.839409E6</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6.949132E6</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7.231869E6</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7.66644E6</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>8.325922E6</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>8.743689E6</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9.043666E6</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9.234391E6</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>8.732127E6</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>9.782502E6</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.0550251E7</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.0390094E7</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.0798701E7</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.0792572E7</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.1140386E7</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.1562274E7</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.330998E7</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.388817E7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.5189094E7</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.4896776E7</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.529796E7</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.6500848E7</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.6550762E7</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.6978014E7</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.8068102E7</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.8536521E7</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.8320107E7</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.9288278E7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.9849735E7</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.9723984E7</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.9411886E7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.9817486E7</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.0245599E7</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.0670843E7</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.1191986E7</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.1857837E7</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.2511337E7</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.2903374E7</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.350655E7</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.3939224E7</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.4626305E7</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.542009E7</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.5996984E7</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.6487231E7</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.7332636E7</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.8002847E7</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.8771707E7</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.9440794E7</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3.0127272E7</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3.0538614E7</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3.1249765E7</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3.1729693E7</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3.2570835E7</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3.3164947E7</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>3.4119446E7</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3.4791706E7</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3.5903815E7</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3.6306367E7</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>3.6933033E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Map</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$141:$A$239</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45000.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50000.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55000.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60000.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>65000.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>70000.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>75000.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80000.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>85000.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>90000.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>95000.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>105000.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>110000.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>115000.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>120000.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>125000.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>130000.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>135000.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>140000.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>145000.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>150000.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>155000.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>160000.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>165000.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>170000.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>175000.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>180000.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>185000.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>190000.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>195000.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>205000.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>210000.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>215000.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>220000.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>225000.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>230000.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>235000.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>240000.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>245000.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>250000.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>255000.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>260000.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>265000.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>270000.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>275000.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>280000.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>285000.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>290000.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>295000.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>300000.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>305000.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>310000.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>315000.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>320000.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>325000.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>330000.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>335000.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>340000.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>345000.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>350000.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>355000.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>360000.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>365000.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>370000.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>375000.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>380000.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>385000.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>390000.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>395000.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>400000.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>405000.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>410000.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>415000.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>420000.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>425000.0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>430000.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>435000.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>440000.0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>445000.0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>450000.0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>455000.0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>460000.0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>465000.0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>470000.0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>475000.0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>480000.0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>485000.0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>490000.0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>495000.0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$141:$C$239</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>3141.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4886.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12664.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9466.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11445.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13707.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15885.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19213.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20818.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23234.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25653.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>29706.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>31347.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>33578.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>36123.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>39533.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42920.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>58034.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>46905.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>49208.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>53733.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>56352.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>58922.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>61740.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>77019.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>87348.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>98222.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>108494.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>102135.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>86166.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>100337.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>110055.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>129349.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>131619.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>123346.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>114848.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>153817.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>121498.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>172045.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>180732.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>141522.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>153054.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>157183.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>154684.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>216522.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>230573.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>193409.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>242923.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>172326.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>241316.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>247416.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>184714.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>226493.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>192033.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>200491.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>205290.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>262859.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>257274.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>304085.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>320408.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>291834.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>347157.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>280376.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>302459.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>304478.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>346318.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>334069.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>342252.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>377637.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>327602.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>331956.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>342898.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>345005.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>339653.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>344173.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>354197.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>379912.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>393804.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>376290.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>388588.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>399797.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>411669.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>413402.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>412047.0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>408038.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>419720.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>444454.0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>441649.0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>446168.0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>460354.0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>463103.0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>474471.0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>469736.0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>480700.0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>489629.0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>489657.0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>501184.0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>498934.0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>530454.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2073150248"/>
+        <c:axId val="-2072145544"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2073150248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000"/>
+                  <a:t>N</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2072145544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2072145544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800"/>
+                  <a:t>Microseconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2073150248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Vecotr and Map Performace (N=10k-75k)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Vector</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$141:$A$154</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45000.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50000.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55000.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60000.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>65000.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>70000.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>75000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$141:$B$154</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>13175.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28605.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49510.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>86404.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>118606.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>160243.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>206885.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>265265.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>328086.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>393684.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>451790.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>519789.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>640526.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>724706.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Map</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$141:$A$154</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45000.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50000.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55000.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60000.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>65000.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>70000.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>75000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$141:$C$154</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>3141.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4886.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12664.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9466.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11445.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13707.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15885.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19213.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20818.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23234.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25653.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>29706.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>31347.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>33578.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2036465352"/>
+        <c:axId val="-2037365448"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2036465352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800"/>
+                  <a:t>N</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2037365448"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2037365448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800"/>
+                  <a:t>Microseconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2036465352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -837,6 +3331,98 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1167,10 +3753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P67"/>
+  <dimension ref="A1:P239"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="E16" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A174" workbookViewId="0">
+      <selection activeCell="K224" sqref="K224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1178,6 +3764,7 @@
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="33" customWidth="1"/>
     <col min="3" max="3" width="19.1640625" customWidth="1"/>
+    <col min="5" max="5" width="28.5" customWidth="1"/>
     <col min="15" max="15" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1332,7 +3919,10 @@
         <v>61112168428</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1">
+        <f>34735412362/1000</f>
+        <v>34735412.362000003</v>
+      </c>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6">
@@ -3416,8 +6006,1655 @@
         <v>323100.66666666669</v>
       </c>
     </row>
+    <row r="71" spans="1:16">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+    </row>
+    <row r="72" spans="1:16">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+    </row>
+    <row r="73" spans="1:16">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+    </row>
+    <row r="74" spans="1:16">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+    </row>
+    <row r="75" spans="1:16">
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+    </row>
+    <row r="76" spans="1:16">
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+    </row>
+    <row r="77" spans="1:16">
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+    </row>
+    <row r="78" spans="1:16">
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+    </row>
+    <row r="79" spans="1:16">
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+    </row>
+    <row r="80" spans="1:16">
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="3"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="1">
+        <v>5000</v>
+      </c>
+      <c r="B82" s="1">
+        <v>3258</v>
+      </c>
+      <c r="C82" s="1">
+        <v>44754</v>
+      </c>
+      <c r="D82">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="1">
+        <v>10000</v>
+      </c>
+      <c r="B83" s="1">
+        <v>10551</v>
+      </c>
+      <c r="C83" s="1">
+        <v>240292</v>
+      </c>
+      <c r="D83">
+        <v>3533</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="1">
+        <v>15000</v>
+      </c>
+      <c r="B84" s="1">
+        <v>29320</v>
+      </c>
+      <c r="C84" s="1">
+        <v>724347</v>
+      </c>
+      <c r="D84">
+        <v>5069</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="1">
+        <v>20000</v>
+      </c>
+      <c r="B85" s="1">
+        <v>49862</v>
+      </c>
+      <c r="C85" s="1">
+        <v>1505931</v>
+      </c>
+      <c r="D85">
+        <v>8914</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="1">
+        <v>25000</v>
+      </c>
+      <c r="B86" s="1">
+        <v>77361</v>
+      </c>
+      <c r="C86" s="1">
+        <v>2654235</v>
+      </c>
+      <c r="D86">
+        <v>11423</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="1">
+        <v>30000</v>
+      </c>
+      <c r="B87" s="1">
+        <v>119483</v>
+      </c>
+      <c r="C87" s="1">
+        <v>4021682</v>
+      </c>
+      <c r="D87">
+        <v>15548</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="1">
+        <v>35000</v>
+      </c>
+      <c r="B88" s="1">
+        <v>159917</v>
+      </c>
+      <c r="C88" s="1">
+        <v>5733955</v>
+      </c>
+      <c r="D88">
+        <v>17345</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="1">
+        <v>40000</v>
+      </c>
+      <c r="B89" s="1">
+        <v>209399</v>
+      </c>
+      <c r="C89" s="1">
+        <v>7713886</v>
+      </c>
+      <c r="D89">
+        <v>20422</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="1">
+        <v>45000</v>
+      </c>
+      <c r="B90" s="1">
+        <v>264535</v>
+      </c>
+      <c r="C90" s="1">
+        <v>9957885</v>
+      </c>
+      <c r="D90">
+        <v>24258</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="3">
+        <v>60000</v>
+      </c>
+      <c r="B91" s="3">
+        <v>455057</v>
+      </c>
+      <c r="C91" s="3">
+        <v>20412733</v>
+      </c>
+      <c r="D91">
+        <v>33599</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="3">
+        <v>70000</v>
+      </c>
+      <c r="B92" s="3">
+        <v>704823</v>
+      </c>
+      <c r="C92" s="3">
+        <v>28378960</v>
+      </c>
+      <c r="D92">
+        <v>30023</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="3">
+        <v>80000</v>
+      </c>
+      <c r="B93" s="3">
+        <v>919384</v>
+      </c>
+      <c r="C93" s="3">
+        <v>34989711</v>
+      </c>
+      <c r="D93">
+        <v>50421</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="3">
+        <v>90000</v>
+      </c>
+      <c r="B94" s="3">
+        <v>1074119</v>
+      </c>
+      <c r="C94" s="3">
+        <v>45017155</v>
+      </c>
+      <c r="D94">
+        <v>51048</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="3">
+        <v>100000</v>
+      </c>
+      <c r="B95" s="3">
+        <v>1373021</v>
+      </c>
+      <c r="C95" s="3">
+        <v>62368342</v>
+      </c>
+      <c r="D95">
+        <v>56304</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="3">
+        <v>110000</v>
+      </c>
+      <c r="B96" s="3">
+        <v>1713324</v>
+      </c>
+      <c r="C96" s="3">
+        <v>88683889</v>
+      </c>
+      <c r="D96">
+        <v>70170</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="3">
+        <v>120000</v>
+      </c>
+      <c r="B97" s="3">
+        <v>2269565</v>
+      </c>
+      <c r="C97" s="3">
+        <v>127217458</v>
+      </c>
+      <c r="D97">
+        <v>81332</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="3">
+        <v>130000</v>
+      </c>
+      <c r="B98" s="3">
+        <v>2631038</v>
+      </c>
+      <c r="C98" s="3">
+        <v>116580865</v>
+      </c>
+      <c r="D98">
+        <v>85161</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="3">
+        <v>140000</v>
+      </c>
+      <c r="B99" s="3">
+        <v>2841783</v>
+      </c>
+      <c r="C99" s="3">
+        <v>136519390</v>
+      </c>
+      <c r="D99">
+        <v>92381</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="3">
+        <v>150000</v>
+      </c>
+      <c r="B100" s="3">
+        <v>3554821</v>
+      </c>
+      <c r="C100" s="3">
+        <v>158578871</v>
+      </c>
+      <c r="D100">
+        <v>99630</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="3">
+        <v>160000</v>
+      </c>
+      <c r="B101" s="3">
+        <v>3653809</v>
+      </c>
+      <c r="C101" s="3">
+        <v>206583364</v>
+      </c>
+      <c r="D101">
+        <v>107867</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="3">
+        <v>170000</v>
+      </c>
+      <c r="B102" s="3">
+        <v>4072697</v>
+      </c>
+      <c r="C102" s="3">
+        <v>204422368</v>
+      </c>
+      <c r="D102">
+        <v>115149</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="3">
+        <v>180000</v>
+      </c>
+      <c r="B103" s="3">
+        <v>4594941</v>
+      </c>
+      <c r="C103" s="3">
+        <v>272771350</v>
+      </c>
+      <c r="D103">
+        <v>118698</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="3">
+        <v>190000</v>
+      </c>
+      <c r="B104" s="3">
+        <v>5930601</v>
+      </c>
+      <c r="C104" s="3">
+        <v>350982326</v>
+      </c>
+      <c r="D104">
+        <v>120504</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="3">
+        <v>200000</v>
+      </c>
+      <c r="B105" s="3">
+        <v>5879084</v>
+      </c>
+      <c r="C105" s="3">
+        <v>433526395</v>
+      </c>
+      <c r="D105">
+        <v>138160</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="3">
+        <v>210000</v>
+      </c>
+      <c r="B106" s="3">
+        <v>6316151</v>
+      </c>
+      <c r="C106" s="3">
+        <v>500608306</v>
+      </c>
+      <c r="D106">
+        <v>146987</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3">
+      <c r="B115">
+        <v>60000</v>
+      </c>
+      <c r="C115">
+        <v>33599</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3">
+      <c r="B116">
+        <v>70000</v>
+      </c>
+      <c r="C116">
+        <v>30023</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3">
+      <c r="B117">
+        <v>80000</v>
+      </c>
+      <c r="C117">
+        <v>50421</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3">
+      <c r="B118">
+        <v>90000</v>
+      </c>
+      <c r="C118">
+        <v>51048</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3">
+      <c r="B119">
+        <v>100000</v>
+      </c>
+      <c r="C119">
+        <v>56304</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3">
+      <c r="B120">
+        <v>110000</v>
+      </c>
+      <c r="C120">
+        <v>70170</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3">
+      <c r="B121">
+        <v>120000</v>
+      </c>
+      <c r="C121">
+        <v>81332</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3">
+      <c r="B122">
+        <v>130000</v>
+      </c>
+      <c r="C122">
+        <v>85161</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3">
+      <c r="B123">
+        <v>140000</v>
+      </c>
+      <c r="C123">
+        <v>92381</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3">
+      <c r="B124">
+        <v>150000</v>
+      </c>
+      <c r="C124">
+        <v>99630</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3">
+      <c r="B125">
+        <v>160000</v>
+      </c>
+      <c r="C125">
+        <v>107867</v>
+      </c>
+    </row>
+    <row r="126" spans="2:3">
+      <c r="B126">
+        <v>170000</v>
+      </c>
+      <c r="C126">
+        <v>115149</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3">
+      <c r="B127">
+        <v>180000</v>
+      </c>
+      <c r="C127">
+        <v>118698</v>
+      </c>
+    </row>
+    <row r="128" spans="2:3">
+      <c r="B128">
+        <v>190000</v>
+      </c>
+      <c r="C128">
+        <v>120504</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="B129">
+        <v>200000</v>
+      </c>
+      <c r="C129">
+        <v>138160</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="B130">
+        <v>210000</v>
+      </c>
+      <c r="C130">
+        <v>146987</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="B131">
+        <v>220000</v>
+      </c>
+      <c r="C131">
+        <v>170042</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="B132">
+        <v>230000</v>
+      </c>
+      <c r="C132">
+        <v>183814</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="B133">
+        <v>240000</v>
+      </c>
+      <c r="C133">
+        <v>176250</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141">
+        <v>10000</v>
+      </c>
+      <c r="B141">
+        <v>13175</v>
+      </c>
+      <c r="C141">
+        <v>3141</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142">
+        <v>15000</v>
+      </c>
+      <c r="B142">
+        <v>28605</v>
+      </c>
+      <c r="C142">
+        <v>4886</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143">
+        <v>20000</v>
+      </c>
+      <c r="B143">
+        <v>49510</v>
+      </c>
+      <c r="C143">
+        <v>12664</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144">
+        <v>25000</v>
+      </c>
+      <c r="B144">
+        <v>86404</v>
+      </c>
+      <c r="C144">
+        <v>9466</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145">
+        <v>30000</v>
+      </c>
+      <c r="B145">
+        <v>118606</v>
+      </c>
+      <c r="C145">
+        <v>11445</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146">
+        <v>35000</v>
+      </c>
+      <c r="B146">
+        <v>160243</v>
+      </c>
+      <c r="C146">
+        <v>13707</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147">
+        <v>40000</v>
+      </c>
+      <c r="B147">
+        <v>206885</v>
+      </c>
+      <c r="C147">
+        <v>15885</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148">
+        <v>45000</v>
+      </c>
+      <c r="B148">
+        <v>265265</v>
+      </c>
+      <c r="C148">
+        <v>19213</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149">
+        <v>50000</v>
+      </c>
+      <c r="B149">
+        <v>328086</v>
+      </c>
+      <c r="C149">
+        <v>20818</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150">
+        <v>55000</v>
+      </c>
+      <c r="B150">
+        <v>393684</v>
+      </c>
+      <c r="C150">
+        <v>23234</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151">
+        <v>60000</v>
+      </c>
+      <c r="B151">
+        <v>451790</v>
+      </c>
+      <c r="C151">
+        <v>25653</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152">
+        <v>65000</v>
+      </c>
+      <c r="B152">
+        <v>519789</v>
+      </c>
+      <c r="C152">
+        <v>29706</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153">
+        <v>70000</v>
+      </c>
+      <c r="B153">
+        <v>640526</v>
+      </c>
+      <c r="C153">
+        <v>31347</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154">
+        <v>75000</v>
+      </c>
+      <c r="B154">
+        <v>724706</v>
+      </c>
+      <c r="C154">
+        <v>33578</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155">
+        <v>80000</v>
+      </c>
+      <c r="B155">
+        <v>793267</v>
+      </c>
+      <c r="C155">
+        <v>36123</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156">
+        <v>85000</v>
+      </c>
+      <c r="B156">
+        <v>911773</v>
+      </c>
+      <c r="C156">
+        <v>39533</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157">
+        <v>90000</v>
+      </c>
+      <c r="B157">
+        <v>1019078</v>
+      </c>
+      <c r="C157">
+        <v>42920</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158">
+        <v>95000</v>
+      </c>
+      <c r="B158">
+        <v>1173197</v>
+      </c>
+      <c r="C158">
+        <v>58034</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159">
+        <v>100000</v>
+      </c>
+      <c r="B159">
+        <v>1268201</v>
+      </c>
+      <c r="C159">
+        <v>46905</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160">
+        <v>105000</v>
+      </c>
+      <c r="B160">
+        <v>1489101</v>
+      </c>
+      <c r="C160">
+        <v>49208</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161">
+        <v>110000</v>
+      </c>
+      <c r="B161">
+        <v>1594628</v>
+      </c>
+      <c r="C161">
+        <v>53733</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162">
+        <v>115000</v>
+      </c>
+      <c r="B162">
+        <v>1817592</v>
+      </c>
+      <c r="C162">
+        <v>56352</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163">
+        <v>120000</v>
+      </c>
+      <c r="B163">
+        <v>1866054</v>
+      </c>
+      <c r="C163">
+        <v>58922</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164">
+        <v>125000</v>
+      </c>
+      <c r="B164">
+        <v>2073252</v>
+      </c>
+      <c r="C164">
+        <v>61740</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165">
+        <v>130000</v>
+      </c>
+      <c r="B165">
+        <v>2383568</v>
+      </c>
+      <c r="C165">
+        <v>77019</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166">
+        <v>135000</v>
+      </c>
+      <c r="B166">
+        <v>2822407</v>
+      </c>
+      <c r="C166">
+        <v>87348</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167">
+        <v>140000</v>
+      </c>
+      <c r="B167">
+        <v>2909058</v>
+      </c>
+      <c r="C167">
+        <v>98222</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168">
+        <v>145000</v>
+      </c>
+      <c r="B168">
+        <v>3170397</v>
+      </c>
+      <c r="C168">
+        <v>108494</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169">
+        <v>150000</v>
+      </c>
+      <c r="B169">
+        <v>3432652</v>
+      </c>
+      <c r="C169">
+        <v>102135</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170">
+        <v>155000</v>
+      </c>
+      <c r="B170">
+        <v>3562294</v>
+      </c>
+      <c r="C170">
+        <v>86166</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171">
+        <v>160000</v>
+      </c>
+      <c r="B171">
+        <v>3575821</v>
+      </c>
+      <c r="C171">
+        <v>100337</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172">
+        <v>165000</v>
+      </c>
+      <c r="B172">
+        <v>3934010</v>
+      </c>
+      <c r="C172">
+        <v>110055</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173">
+        <v>170000</v>
+      </c>
+      <c r="B173">
+        <v>4361691</v>
+      </c>
+      <c r="C173">
+        <v>129349</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174">
+        <v>175000</v>
+      </c>
+      <c r="B174">
+        <v>4556307</v>
+      </c>
+      <c r="C174">
+        <v>131619</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175">
+        <v>180000</v>
+      </c>
+      <c r="B175">
+        <v>4850801</v>
+      </c>
+      <c r="C175">
+        <v>123346</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176">
+        <v>185000</v>
+      </c>
+      <c r="B176">
+        <v>5155615</v>
+      </c>
+      <c r="C176">
+        <v>114848</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177">
+        <v>190000</v>
+      </c>
+      <c r="B177">
+        <v>5559236</v>
+      </c>
+      <c r="C177">
+        <v>153817</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178">
+        <v>195000</v>
+      </c>
+      <c r="B178">
+        <v>5602669</v>
+      </c>
+      <c r="C178">
+        <v>121498</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179">
+        <v>200000</v>
+      </c>
+      <c r="B179">
+        <v>6175042</v>
+      </c>
+      <c r="C179">
+        <v>172045</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180">
+        <v>205000</v>
+      </c>
+      <c r="B180">
+        <v>6503728</v>
+      </c>
+      <c r="C180">
+        <v>180732</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181">
+        <v>210000</v>
+      </c>
+      <c r="B181">
+        <v>6839409</v>
+      </c>
+      <c r="C181">
+        <v>141522</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182">
+        <v>215000</v>
+      </c>
+      <c r="B182">
+        <v>6949132</v>
+      </c>
+      <c r="C182">
+        <v>153054</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183">
+        <v>220000</v>
+      </c>
+      <c r="B183">
+        <v>7231869</v>
+      </c>
+      <c r="C183">
+        <v>157183</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184">
+        <v>225000</v>
+      </c>
+      <c r="B184">
+        <v>7666440</v>
+      </c>
+      <c r="C184">
+        <v>154684</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185">
+        <v>230000</v>
+      </c>
+      <c r="B185">
+        <v>8325922</v>
+      </c>
+      <c r="C185">
+        <v>216522</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186">
+        <v>235000</v>
+      </c>
+      <c r="B186">
+        <v>8743689</v>
+      </c>
+      <c r="C186">
+        <v>230573</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187">
+        <v>240000</v>
+      </c>
+      <c r="B187">
+        <v>9043666</v>
+      </c>
+      <c r="C187">
+        <v>193409</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188">
+        <v>245000</v>
+      </c>
+      <c r="B188">
+        <v>9234391</v>
+      </c>
+      <c r="C188">
+        <v>242923</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189">
+        <v>250000</v>
+      </c>
+      <c r="B189">
+        <v>8732127</v>
+      </c>
+      <c r="C189">
+        <v>172326</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190">
+        <v>255000</v>
+      </c>
+      <c r="B190">
+        <v>9782502</v>
+      </c>
+      <c r="C190">
+        <v>241316</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191">
+        <v>260000</v>
+      </c>
+      <c r="B191">
+        <v>10550251</v>
+      </c>
+      <c r="C191">
+        <v>247416</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192">
+        <v>265000</v>
+      </c>
+      <c r="B192">
+        <v>10390094</v>
+      </c>
+      <c r="C192">
+        <v>184714</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193">
+        <v>270000</v>
+      </c>
+      <c r="B193">
+        <v>10798701</v>
+      </c>
+      <c r="C193">
+        <v>226493</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194">
+        <v>275000</v>
+      </c>
+      <c r="B194">
+        <v>10792572</v>
+      </c>
+      <c r="C194">
+        <v>192033</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195">
+        <v>280000</v>
+      </c>
+      <c r="B195">
+        <v>11140386</v>
+      </c>
+      <c r="C195">
+        <v>200491</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196">
+        <v>285000</v>
+      </c>
+      <c r="B196">
+        <v>11562274</v>
+      </c>
+      <c r="C196">
+        <v>205290</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197">
+        <v>290000</v>
+      </c>
+      <c r="B197">
+        <v>13309980</v>
+      </c>
+      <c r="C197">
+        <v>262859</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198">
+        <v>295000</v>
+      </c>
+      <c r="B198">
+        <v>13888170</v>
+      </c>
+      <c r="C198">
+        <v>257274</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199">
+        <v>300000</v>
+      </c>
+      <c r="B199">
+        <v>15189094</v>
+      </c>
+      <c r="C199">
+        <v>304085</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200">
+        <v>305000</v>
+      </c>
+      <c r="B200">
+        <v>14896776</v>
+      </c>
+      <c r="C200">
+        <v>320408</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201">
+        <v>310000</v>
+      </c>
+      <c r="B201">
+        <v>15297960</v>
+      </c>
+      <c r="C201">
+        <v>291834</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202">
+        <v>315000</v>
+      </c>
+      <c r="B202">
+        <v>16500848</v>
+      </c>
+      <c r="C202">
+        <v>347157</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203">
+        <v>320000</v>
+      </c>
+      <c r="B203">
+        <v>16550762</v>
+      </c>
+      <c r="C203">
+        <v>280376</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204">
+        <v>325000</v>
+      </c>
+      <c r="B204">
+        <v>16978014</v>
+      </c>
+      <c r="C204">
+        <v>302459</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205">
+        <v>330000</v>
+      </c>
+      <c r="B205">
+        <v>18068102</v>
+      </c>
+      <c r="C205">
+        <v>304478</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206">
+        <v>335000</v>
+      </c>
+      <c r="B206">
+        <v>18536521</v>
+      </c>
+      <c r="C206">
+        <v>346318</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207">
+        <v>340000</v>
+      </c>
+      <c r="B207">
+        <v>18320107</v>
+      </c>
+      <c r="C207">
+        <v>334069</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208">
+        <v>345000</v>
+      </c>
+      <c r="B208">
+        <v>19288278</v>
+      </c>
+      <c r="C208">
+        <v>342252</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209">
+        <v>350000</v>
+      </c>
+      <c r="B209">
+        <v>19849735</v>
+      </c>
+      <c r="C209">
+        <v>377637</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210">
+        <v>355000</v>
+      </c>
+      <c r="B210">
+        <v>19723984</v>
+      </c>
+      <c r="C210">
+        <v>327602</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211">
+        <v>360000</v>
+      </c>
+      <c r="B211">
+        <v>19411886</v>
+      </c>
+      <c r="C211">
+        <v>331956</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212">
+        <v>365000</v>
+      </c>
+      <c r="B212">
+        <v>19817486</v>
+      </c>
+      <c r="C212">
+        <v>342898</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213">
+        <v>370000</v>
+      </c>
+      <c r="B213">
+        <v>20245599</v>
+      </c>
+      <c r="C213">
+        <v>345005</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214">
+        <v>375000</v>
+      </c>
+      <c r="B214">
+        <v>20670843</v>
+      </c>
+      <c r="C214">
+        <v>339653</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215">
+        <v>380000</v>
+      </c>
+      <c r="B215">
+        <v>21191986</v>
+      </c>
+      <c r="C215">
+        <v>344173</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216">
+        <v>385000</v>
+      </c>
+      <c r="B216">
+        <v>21857837</v>
+      </c>
+      <c r="C216">
+        <v>354197</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217">
+        <v>390000</v>
+      </c>
+      <c r="B217">
+        <v>22511337</v>
+      </c>
+      <c r="C217">
+        <v>379912</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218">
+        <v>395000</v>
+      </c>
+      <c r="B218">
+        <v>22903374</v>
+      </c>
+      <c r="C218">
+        <v>393804</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219">
+        <v>400000</v>
+      </c>
+      <c r="B219">
+        <v>23506550</v>
+      </c>
+      <c r="C219">
+        <v>376290</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220">
+        <v>405000</v>
+      </c>
+      <c r="B220">
+        <v>23939224</v>
+      </c>
+      <c r="C220">
+        <v>388588</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221">
+        <v>410000</v>
+      </c>
+      <c r="B221">
+        <v>24626305</v>
+      </c>
+      <c r="C221">
+        <v>399797</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222">
+        <v>415000</v>
+      </c>
+      <c r="B222">
+        <v>25420090</v>
+      </c>
+      <c r="C222">
+        <v>411669</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223">
+        <v>420000</v>
+      </c>
+      <c r="B223">
+        <v>25996984</v>
+      </c>
+      <c r="C223">
+        <v>413402</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224">
+        <v>425000</v>
+      </c>
+      <c r="B224">
+        <v>26487231</v>
+      </c>
+      <c r="C224">
+        <v>412047</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225">
+        <v>430000</v>
+      </c>
+      <c r="B225">
+        <v>27332636</v>
+      </c>
+      <c r="C225">
+        <v>408038</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226">
+        <v>435000</v>
+      </c>
+      <c r="B226">
+        <v>28002847</v>
+      </c>
+      <c r="C226">
+        <v>419720</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227">
+        <v>440000</v>
+      </c>
+      <c r="B227">
+        <v>28771707</v>
+      </c>
+      <c r="C227">
+        <v>444454</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228">
+        <v>445000</v>
+      </c>
+      <c r="B228">
+        <v>29440794</v>
+      </c>
+      <c r="C228">
+        <v>441649</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229">
+        <v>450000</v>
+      </c>
+      <c r="B229">
+        <v>30127272</v>
+      </c>
+      <c r="C229">
+        <v>446168</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230">
+        <v>455000</v>
+      </c>
+      <c r="B230">
+        <v>30538614</v>
+      </c>
+      <c r="C230">
+        <v>460354</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231">
+        <v>460000</v>
+      </c>
+      <c r="B231">
+        <v>31249765</v>
+      </c>
+      <c r="C231">
+        <v>463103</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232">
+        <v>465000</v>
+      </c>
+      <c r="B232">
+        <v>31729693</v>
+      </c>
+      <c r="C232">
+        <v>474471</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233">
+        <v>470000</v>
+      </c>
+      <c r="B233">
+        <v>32570835</v>
+      </c>
+      <c r="C233">
+        <v>469736</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234">
+        <v>475000</v>
+      </c>
+      <c r="B234">
+        <v>33164947</v>
+      </c>
+      <c r="C234">
+        <v>480700</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235">
+        <v>480000</v>
+      </c>
+      <c r="B235">
+        <v>34119446</v>
+      </c>
+      <c r="C235">
+        <v>489629</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236">
+        <v>485000</v>
+      </c>
+      <c r="B236">
+        <v>34791706</v>
+      </c>
+      <c r="C236">
+        <v>489657</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237">
+        <v>490000</v>
+      </c>
+      <c r="B237">
+        <v>35903815</v>
+      </c>
+      <c r="C237">
+        <v>501184</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238">
+        <v>495000</v>
+      </c>
+      <c r="B238">
+        <v>36306367</v>
+      </c>
+      <c r="C238">
+        <v>498934</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239">
+        <v>500000</v>
+      </c>
+      <c r="B239">
+        <v>36933033</v>
+      </c>
+      <c r="C239">
+        <v>530454</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
